--- a/todolist/todolist.xlsx
+++ b/todolist/todolist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">temps passé</t>
   </si>
   <si>
+    <t xml:space="preserve">temps restant</t>
+  </si>
+  <si>
     <t xml:space="preserve">copie code</t>
   </si>
   <si>
@@ -73,7 +76,28 @@
     <t xml:space="preserve">Relation si requete select</t>
   </si>
   <si>
+    <t xml:space="preserve">changement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retourner object[][][]</t>
+  </si>
+  <si>
     <t xml:space="preserve">String si save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création bdd</t>
   </si>
 </sst>
 </file>
@@ -153,12 +177,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,18 +207,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,144 +244,259 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">E2-G2</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="0" t="e">
+        <f aca="false">#REF!/#REF!</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">E3-G3</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">E4-G4</f>
+        <v>-9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">E5-G5</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">E6-G6</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">E8-G8</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
